--- a/backend/fms_core/static/submission_templates/Experiment_run_Axiom_v4_7_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_run_Axiom_v4_7_0.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="464">
   <si>
     <t xml:space="preserve">Experiment Submission Template</t>
   </si>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">Liquid Handler instrument</t>
   </si>
   <si>
-    <t xml:space="preserve">axiom 96-format array</t>
+    <t xml:space="preserve">axiom 96-format array PMRA</t>
   </si>
   <si>
     <t xml:space="preserve">A01</t>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t xml:space="preserve">Step complete - Move to next step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axiom 96-format array UKBB</t>
   </si>
   <si>
     <t xml:space="preserve">A02</t>
@@ -1677,7 +1680,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1772,6 +1775,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1888,7 +1897,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2013,6 +2022,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2246,10 +2259,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="str">
-        <f aca="false">IF(A7&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2262,10 +2272,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="str">
-        <f aca="false">IF(A8&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2278,10 +2285,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="str">
-        <f aca="false">IF(A9&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2294,10 +2298,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="str">
-        <f aca="false">IF(A10&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2310,10 +2311,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="str">
-        <f aca="false">IF(A11&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2326,10 +2324,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="str">
-        <f aca="false">IF(A12&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2342,10 +2337,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3" t="str">
-        <f aca="false">IF(A13&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2358,10 +2350,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="str">
-        <f aca="false">IF(A14&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2374,10 +2363,7 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="str">
-        <f aca="false">IF(A15&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2390,10 +2376,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="str">
-        <f aca="false">IF(A16&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2406,10 +2389,7 @@
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="str">
-        <f aca="false">IF(A17&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2422,10 +2402,7 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3" t="str">
-        <f aca="false">IF(A18&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2438,10 +2415,7 @@
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3" t="str">
-        <f aca="false">IF(A19&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2454,10 +2428,7 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="str">
-        <f aca="false">IF(A20&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2470,10 +2441,7 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3" t="str">
-        <f aca="false">IF(A21&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2486,10 +2454,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3" t="str">
-        <f aca="false">IF(A22&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2502,10 +2467,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3" t="str">
-        <f aca="false">IF(A23&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2518,10 +2480,7 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3" t="str">
-        <f aca="false">IF(A24&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2534,10 +2493,7 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3" t="str">
-        <f aca="false">IF(A25&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2550,10 +2506,7 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="str">
-        <f aca="false">IF(A26&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2566,10 +2519,7 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3" t="str">
-        <f aca="false">IF(A27&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2582,10 +2532,7 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="str">
-        <f aca="false">IF(A28&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2598,10 +2545,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3" t="str">
-        <f aca="false">IF(A29&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2614,10 +2558,7 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="3" t="str">
-        <f aca="false">IF(A30&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2630,10 +2571,7 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3" t="str">
-        <f aca="false">IF(A31&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2646,10 +2584,7 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3" t="str">
-        <f aca="false">IF(A32&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2662,10 +2597,7 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3" t="str">
-        <f aca="false">IF(A33&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2678,10 +2610,7 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="3" t="str">
-        <f aca="false">IF(A34&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2694,10 +2623,7 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="3" t="str">
-        <f aca="false">IF(A35&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2710,10 +2636,7 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="3" t="str">
-        <f aca="false">IF(A36&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2726,10 +2649,7 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="3" t="str">
-        <f aca="false">IF(A37&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2742,10 +2662,7 @@
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="3" t="str">
-        <f aca="false">IF(A38&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2758,10 +2675,7 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="3" t="str">
-        <f aca="false">IF(A39&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2774,10 +2688,7 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3" t="str">
-        <f aca="false">IF(A40&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2790,10 +2701,7 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="3" t="str">
-        <f aca="false">IF(A41&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2806,10 +2714,7 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="3" t="str">
-        <f aca="false">IF(A42&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2822,10 +2727,7 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="3" t="str">
-        <f aca="false">IF(A43&lt;&gt;"",Index!$A$2,"")</f>
-        <v/>
-      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -10464,16 +10366,16 @@
     <mergeCell ref="H5:K5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C43" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D26" type="list">
       <formula1>Index!$H$2:$H$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J43" type="list">
       <formula1>Index!$I$2:$I$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C44" type="list">
+      <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -25212,3651 +25114,3653 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>95</v>
+      <c r="F13" s="32" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="31" t="s">
         <v>173</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>202</v>
+        <v>154</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>231</v>
+        <v>137</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C84" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F93" s="31" t="s">
         <v>252</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C96" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C97" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F109" s="31" t="s">
-        <v>265</v>
+        <v>202</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F125" s="31" t="s">
-        <v>285</v>
+        <v>143</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E126" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E127" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E138" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F141" s="31" t="s">
         <v>301</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E145" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E149" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E150" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E152" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E156" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E158" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E159" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E160" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E161" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E162" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E163" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E164" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E165" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E166" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E167" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E168" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E169" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E171" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E172" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E173" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E174" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E175" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E176" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E177" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E178" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E179" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E180" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E181" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E182" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E183" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E184" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E185" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E186" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E187" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E188" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E189" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E190" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E191" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E192" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E193" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E194" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E195" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E196" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E197" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E198" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E199" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E200" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E201" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E202" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E203" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E204" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E205" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E206" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E207" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E213" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E214" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E215" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E219" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E220" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E221" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E222" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E226" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E227" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E229" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E233" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E234" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E235" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E239" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E240" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E241" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E242" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E247" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E248" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E249" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E250" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E251" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E252" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E253" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E254" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E255" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E256" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E257" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E258" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E259" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E260" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E261" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E262" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E263" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E264" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E265" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E266" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E267" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E268" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E269" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E270" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E271" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E272" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E273" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E274" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E275" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E276" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E277" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E278" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E279" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E280" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E281" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E282" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E283" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E284" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E285" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E286" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E287" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E288" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E289" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E290" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E291" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E292" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E293" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E294" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E295" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E296" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E297" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E298" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E299" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E300" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E301" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E302" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E303" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E304" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E305" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E306" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E307" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E308" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E309" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E310" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E311" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E312" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E313" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E314" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E315" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E316" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E317" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E318" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E319" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E320" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E321" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E322" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E323" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E324" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E325" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E326" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E327" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E328" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E329" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E330" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E331" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E332" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E333" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E334" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E335" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F335" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E336" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E337" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E338" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E339" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E340" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E341" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E342" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E343" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E344" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E345" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E346" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E347" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E348" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E349" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E350" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E351" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E352" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E353" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E354" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E355" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E356" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E357" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E358" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E359" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E360" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E361" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E362" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E363" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E364" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E365" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E366" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E367" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E368" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E369" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E370" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E371" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E372" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E373" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E374" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E375" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E376" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E377" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E378" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E379" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E380" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E381" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E382" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E383" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E384" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F384" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E385" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
